--- a/backend/data/plantilla_oportunidades.xlsx
+++ b/backend/data/plantilla_oportunidades.xlsx
@@ -1,42 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjoalfaro/Downloads/Proyecto Antigravity/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52159790-4885-7B43-9BB1-73A097A422FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="13740" yWindow="19540" windowWidth="51200" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Oportunidades" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>factor_market</t>
+  </si>
+  <si>
+    <t>factor_construction</t>
+  </si>
+  <si>
+    <t>factor_industry</t>
+  </si>
+  <si>
+    <t>factor_competition</t>
+  </si>
+  <si>
+    <t>factor_logistics</t>
+  </si>
+  <si>
+    <t>Comunidad de Madrid</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Alta demanda oficinas</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Base local, fuerte actividad terciaria, turismo y logística en eje Valencia-Castellón-Alicante.</t>
+  </si>
+  <si>
+    <t>Cataluña</t>
+  </si>
+  <si>
+    <t>Mercado muy desarrollado con alta concentración de oficinas, sanidad, educación e industria.</t>
+  </si>
+  <si>
+    <t>Andalucía</t>
+  </si>
+  <si>
+    <t>Gran parque hotelero y residencial, rehabilitación energética creciente en costa mediterránea.</t>
+  </si>
+  <si>
+    <t>Región de Murcia</t>
+  </si>
+  <si>
+    <t>Proximidad a CV, agroindustria y logística; buen encaje de ventilación descentralizada y cogeneración.</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>Zaragoza como nodo logístico e industrial, foco en plataformas logísticas y naves.</t>
+  </si>
+  <si>
+    <t>Castilla y León</t>
+  </si>
+  <si>
+    <t>Clima frío, demanda de calefacción y rehabilitación en edificios públicos e industria ligera.</t>
+  </si>
+  <si>
+    <t>Castilla-La Mancha</t>
+  </si>
+  <si>
+    <t>Región de paso entre Madrid y Levante, polígonos industriales y logística en crecimiento.</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Clima húmedo y frío, oportunidad en rehabilitación, sanidad, naval y agroalimentario.</t>
+  </si>
+  <si>
+    <t>País Vasco</t>
+  </si>
+  <si>
+    <t>Alta renta y fuerte base industrial; interés para microcogeneración y soluciones de confort premium.</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>Fuerte presencia de automoción y renovables; proyectos de alta eficiencia energética.</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Mercado pequeño, enfoque en bodegas, agroindustria y edificios públicos.</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Clima húmedo, cierta actividad industrial y portuaria; oportunidades puntuales.</t>
+  </si>
+  <si>
+    <t>Principado de Asturias</t>
+  </si>
+  <si>
+    <t>Tradición industrial y clima frío; nichos en industria pesada y sector público.</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Baja densidad de población, foco en edificios públicos, agroindustria y nichos con poca competencia.</t>
+  </si>
+  <si>
+    <t>Illes Balears</t>
+  </si>
+  <si>
+    <t>Altísima intensidad turística, renovación de hoteles y edificios terciarios.</t>
+  </si>
+  <si>
+    <t>Canarias</t>
+  </si>
+  <si>
+    <t>Destino turístico anual, gran parque hotelero; retos logísticos pero margen en soluciones eficientes.</t>
+  </si>
+  <si>
+    <t>Ceuta</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Mercado muy reducido, oportunidades en edificios públicos y contratos específicos.</t>
+  </si>
+  <si>
+    <t>Melilla</t>
+  </si>
+  <si>
+    <t>Dimensión pequeña y dependencia del sector público; proyectos muy puntuales.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,14 +222,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,71 +563,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>lat</v>
-      </c>
-      <c r="D1" t="str">
-        <v>lng</v>
-      </c>
-      <c r="E1" t="str">
-        <v>value</v>
-      </c>
-      <c r="F1" t="str">
-        <v>potential</v>
-      </c>
-      <c r="G1" t="str">
-        <v>description</v>
-      </c>
-      <c r="H1" t="str">
-        <v>factor_market</v>
-      </c>
-      <c r="I1" t="str">
-        <v>factor_construction</v>
-      </c>
-      <c r="J1" t="str">
-        <v>factor_industry</v>
-      </c>
-      <c r="K1" t="str">
-        <v>factor_competition</v>
-      </c>
-      <c r="L1" t="str">
-        <v>factor_logistics</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Comunidad de Madrid</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>40.4168</v>
+        <v>40.416800000000002</v>
       </c>
       <c r="D2">
-        <v>-3.7038</v>
+        <v>-3.7038000000000002</v>
       </c>
       <c r="E2">
         <v>85</v>
       </c>
-      <c r="F2" t="str">
-        <v>Alto</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Alta demanda oficinas</v>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
         <v>95</v>
@@ -478,9 +661,694 @@
         <v>95</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>39.469900000000003</v>
+      </c>
+      <c r="D3">
+        <v>-0.37630000000000002</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>41.3874</v>
+      </c>
+      <c r="D4">
+        <v>2.1686000000000001</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>37.389099999999999</v>
+      </c>
+      <c r="D5">
+        <v>-5.9844999999999997</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>70</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>37.992199999999997</v>
+      </c>
+      <c r="D6">
+        <v>-1.1307</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>41.648800000000001</v>
+      </c>
+      <c r="D7">
+        <v>-0.8891</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>41.652299999999997</v>
+      </c>
+      <c r="D8">
+        <v>-4.7244999999999999</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>39.8568</v>
+      </c>
+      <c r="D9">
+        <v>-4.0244999999999997</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>72</v>
+      </c>
+      <c r="L9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>42.8782</v>
+      </c>
+      <c r="D10">
+        <v>-8.5448000000000004</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>68</v>
+      </c>
+      <c r="L10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>43.262999999999998</v>
+      </c>
+      <c r="D11">
+        <v>-2.9350000000000001</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>92</v>
+      </c>
+      <c r="K11">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>42.8125</v>
+      </c>
+      <c r="D12">
+        <v>-1.6457999999999999</v>
+      </c>
+      <c r="E12">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>82</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>42.462699999999998</v>
+      </c>
+      <c r="D13">
+        <v>-2.4449900000000002</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>58</v>
+      </c>
+      <c r="J13">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>72</v>
+      </c>
+      <c r="L13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>43.462299999999999</v>
+      </c>
+      <c r="D14">
+        <v>-3.8098999999999998</v>
+      </c>
+      <c r="E14">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>68</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>43.361400000000003</v>
+      </c>
+      <c r="D15">
+        <v>-5.8494000000000002</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>78</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+      <c r="L15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>39.472999999999999</v>
+      </c>
+      <c r="D16">
+        <v>-6.3722000000000003</v>
+      </c>
+      <c r="E16">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>55</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>78</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>39.569600000000001</v>
+      </c>
+      <c r="D17">
+        <v>2.6501999999999999</v>
+      </c>
+      <c r="E17">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>78</v>
+      </c>
+      <c r="J17">
+        <v>55</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>28.1235</v>
+      </c>
+      <c r="D18">
+        <v>-15.436299999999999</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>72</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>35.889400000000002</v>
+      </c>
+      <c r="D19">
+        <v>-5.3212999999999999</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>75</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>35.292299999999997</v>
+      </c>
+      <c r="D20">
+        <v>-2.9380999999999999</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>75</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError sqref="A1:B1 E1:L1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>